--- a/VoedingDesign_pcb/EnergieBerekeningen.xlsx
+++ b/VoedingDesign_pcb/EnergieBerekeningen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\LaboEmbeddedSystems2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\1 School\Master\LaboEmbeddedSystems2GitHubMap\Embedded-Systems-II-Lab\VoedingDesign_pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F28739A-263C-491E-AAF1-AFD03E30A57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D606BC-BA83-4587-BBD7-5299B943AB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FAE7BDD9-F21D-4891-8C29-02C30A960F98}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Onderdelen</t>
   </si>
@@ -101,9 +101,6 @@
     <t>30x0,033</t>
   </si>
   <si>
-    <t>2x0,083</t>
-  </si>
-  <si>
     <t>2x highscore in top drie verbroken per 3u --&gt; tijd om te zenden 5 min per highscore</t>
   </si>
   <si>
@@ -174,6 +171,30 @@
   </si>
   <si>
     <t>mWh</t>
+  </si>
+  <si>
+    <t>energieverbruik in sleep</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>energieverbruik actieve mode/dag</t>
+  </si>
+  <si>
+    <t>2167 J (als vervanger)</t>
+  </si>
+  <si>
+    <t>2,85 kWh per vierkante meter in belgië</t>
+  </si>
+  <si>
+    <t>efficientie zonnepaneel gekocht: 19 %</t>
+  </si>
+  <si>
+    <t>winder: 0,5 kWh per vierkante meter</t>
+  </si>
+  <si>
+    <t>rendement zonnepaneel: 500 Wh * 0,0143 m² * 19% = 1,35 Wh</t>
   </si>
 </sst>
 </file>
@@ -183,7 +204,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -231,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -546,16 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F3EDC7-1B80-4BBE-8D15-8C3629720024}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
@@ -626,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -661,7 +683,7 @@
         <v>3.3</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -687,13 +709,13 @@
         <v>560</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -709,8 +731,8 @@
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
+      <c r="E6" s="4">
+        <v>2.7700000000000001E-4</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -725,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -742,7 +764,7 @@
         <v>3600</v>
       </c>
       <c r="E7" s="4">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>10800</v>
@@ -757,7 +779,7 @@
         <v>10800</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -774,7 +796,7 @@
         <v>237.6</v>
       </c>
       <c r="E8" s="2">
-        <v>77.022000000000006</v>
+        <v>0.12837000000000001</v>
       </c>
       <c r="F8" s="2">
         <v>124.74</v>
@@ -789,12 +811,12 @@
         <v>540</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6">
         <f>B3*B6</f>
@@ -809,8 +831,8 @@
         <v>20</v>
       </c>
       <c r="E9" s="6">
-        <f>E3*2*0.083</f>
-        <v>6.4573999999999998</v>
+        <f>E3*E6</f>
+        <v>1.07753E-2</v>
       </c>
       <c r="F9" s="6">
         <f>F3*F6</f>
@@ -831,7 +853,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -844,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>3100</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -902,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>14.4</v>
+        <v>5598</v>
       </c>
       <c r="C15">
         <v>1.5</v>
@@ -955,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -992,12 +1014,12 @@
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>1.0886400000000001</v>
+        <v>423.2088</v>
       </c>
       <c r="C18" s="2">
         <v>0.1134</v>
@@ -1023,13 +1045,13 @@
         <v>249.48</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <f>B16*B13/1000</f>
-        <v>0.16800000000000001</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="C19" s="2">
         <f>C13*C16/1000</f>
@@ -1058,92 +1080,153 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <f>B8+C8+D8+E8+F8+G8+H8+I8+B18+C18+D18+E18+F18+G18+H18+I18</f>
-        <v>2167.4267471999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2512.6532772</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2">
+        <f>B18+C18+D18+E18+F18+G18+H18+I18</f>
+        <v>673.71030719999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>880</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <f>B19+C19+D19+E19+F19+I19</f>
+        <v>134.49743999999998</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <f>B3+C3+D3+E3+F3+280+20+15</f>
         <v>380.51099999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="6">
         <f>B9+C9+D9+E9+F9+G9+H9+I9+B19+C19+D19+E19+F19+G19+H19+I19</f>
-        <v>258.45584000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>316.94121530000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <f>E27*7</f>
-        <v>1809.1908800000001</v>
+        <v>2218.5885071000002</v>
       </c>
       <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
       </c>
       <c r="D34">
         <v>5000</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="2">
+        <f>B8+C8+D8+E8+F8+G8+H8+I8</f>
+        <v>1838.9429700000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="6">
+        <f>B9+C9+D9+E9+F9+G9+H9+I9</f>
+        <v>182.4437753</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/VoedingDesign_pcb/EnergieBerekeningen.xlsx
+++ b/VoedingDesign_pcb/EnergieBerekeningen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\1 School\Master\LaboEmbeddedSystems2GitHubMap\Embedded-Systems-II-Lab\VoedingDesign_pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D606BC-BA83-4587-BBD7-5299B943AB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A56D1-69C5-4891-A78C-9BF88A8E486E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FAE7BDD9-F21D-4891-8C29-02C30A960F98}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FAE7BDD9-F21D-4891-8C29-02C30A960F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
-  <si>
-    <t>Onderdelen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Stroomverbruik (mA)</t>
   </si>
@@ -59,27 +56,12 @@
     <t>Berekening voor 3 uur actief per dag</t>
   </si>
   <si>
-    <t>RFID</t>
-  </si>
-  <si>
-    <t>LoRa</t>
-  </si>
-  <si>
     <t>EFM32</t>
   </si>
   <si>
-    <t>2x 7-segment displays</t>
-  </si>
-  <si>
     <t>Berkening voor overige 21 u sleepmode</t>
   </si>
   <si>
-    <t>4x Backlight LED's</t>
-  </si>
-  <si>
-    <t>Verliezen bij andere componenten</t>
-  </si>
-  <si>
     <t>Stroomverbruik (µA)</t>
   </si>
   <si>
@@ -113,9 +95,6 @@
     <t xml:space="preserve">gedurende de spel tijd (2,5 u): slechts 1 backlight per keer aan </t>
   </si>
   <si>
-    <t>4 x 20 mA (slechts 1 aan per keer)</t>
-  </si>
-  <si>
     <t>4 x 60 mW</t>
   </si>
   <si>
@@ -195,6 +174,30 @@
   </si>
   <si>
     <t>rendement zonnepaneel: 500 Wh * 0,0143 m² * 19% = 1,35 Wh</t>
+  </si>
+  <si>
+    <t>2x 7-segment
+ displays</t>
+  </si>
+  <si>
+    <t>4 x 20 mA</t>
+  </si>
+  <si>
+    <t>4x Backlight
+ LED's</t>
+  </si>
+  <si>
+    <t>Verliezen bij 
+andere 
+componenten</t>
+  </si>
+  <si>
+    <t>RFID
+(zenden)</t>
+  </si>
+  <si>
+    <t>LoRa
+(zenden)</t>
   </si>
 </sst>
 </file>
@@ -243,16 +246,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -569,301 +580,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F3EDC7-1B80-4BBE-8D15-8C3629720024}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
     <col min="12" max="12" width="0.5703125" customWidth="1"/>
     <col min="13" max="13" width="194.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>3.11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>38.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>3.5</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.8</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4">
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
         <v>3.3</v>
       </c>
-      <c r="E4">
-        <v>3.3</v>
-      </c>
-      <c r="F4">
-        <v>3.3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>3.3</v>
-      </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>5.5979999999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1.5E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>66</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>128.37</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>11.55</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>560</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
         <v>2.7700000000000001E-4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>0.17</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>2.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
         <v>10800</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>10800</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>3600</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>10800</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>600</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>9000</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>10800</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
         <v>60.458399999999997</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>237.6</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="8">
         <v>0.12837000000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>124.74</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>336</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <v>540</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>540</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
         <f>B3*B6</f>
         <v>9.33</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <f>C3*C6</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <f>D3*1</f>
         <v>20</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <f>E3*E6</f>
         <v>1.07753E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <f>F3*F6</f>
         <v>10.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <f>280*G6</f>
         <v>47.6</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f>20*H6</f>
         <v>50</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <f>I3*I6</f>
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>3100</v>
@@ -892,7 +902,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>1.8</v>
@@ -921,7 +931,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>5598</v>
@@ -950,7 +960,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>21</v>
@@ -979,7 +989,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <f>B16*3600</f>
@@ -1016,7 +1026,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>423.2088</v>
@@ -1047,7 +1057,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <f>B16*B13/1000</f>
@@ -1082,26 +1092,26 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <f>B8+C8+D8+E8+F8+G8+H8+I8+B18+C18+D18+E18+F18+G18+H18+I18</f>
         <v>2512.6532772</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2">
         <f>B18+C18+D18+E18+F18+G18+H18+I18</f>
         <v>673.71030719999999</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>880</v>
@@ -1111,12 +1121,12 @@
         <v>134.49743999999998</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <f>B3+C3+D3+E3+F3+280+20+15</f>
@@ -1125,7 +1135,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>3.3</v>
@@ -1133,77 +1143,77 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="6">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4">
         <f>B9+C9+D9+E9+F9+G9+H9+I9+B19+C19+D19+E19+F19+G19+H19+I19</f>
         <v>316.94121530000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <f>E27*7</f>
         <v>2218.5885071000002</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>5000</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I37" s="2">
         <f>B8+C8+D8+E8+F8+G8+H8+I8</f>
         <v>1838.9429700000001</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M37">
         <v>2167</v>
@@ -1211,22 +1221,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="6">
+        <v>45</v>
+      </c>
+      <c r="I38" s="4">
         <f>B9+C9+D9+E9+F9+G9+H9+I9</f>
         <v>182.4437753</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
